--- a/excel.xlsx
+++ b/excel.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilantc\workspace\ipStuff\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="9495" windowHeight="4125"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="9495" windowHeight="4125" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,12 +21,12 @@
     <definedName name="a_11">Sheet1!$B$2</definedName>
     <definedName name="b">Sheet1!$C$2</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="46">
   <si>
     <t>secs</t>
   </si>
@@ -81,22 +86,100 @@
   </si>
   <si>
     <t>2+14</t>
+  </si>
+  <si>
+    <t>a1 - a2</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>a5 - a6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;= </t>
+  </si>
+  <si>
+    <t>a9 - a10</t>
+  </si>
+  <si>
+    <t>a13 - a14</t>
+  </si>
+  <si>
+    <t>a1 - a3</t>
+  </si>
+  <si>
+    <t>a5 - a7</t>
+  </si>
+  <si>
+    <t>a9 - a11</t>
+  </si>
+  <si>
+    <t>a13 - a15</t>
+  </si>
+  <si>
+    <t>a1 - a4</t>
+  </si>
+  <si>
+    <t>a5 - a8</t>
+  </si>
+  <si>
+    <t>a9 - a12</t>
+  </si>
+  <si>
+    <t>a13 - a16</t>
+  </si>
+  <si>
+    <t>a2 - a3</t>
+  </si>
+  <si>
+    <t>a6 - a7</t>
+  </si>
+  <si>
+    <t>a10 - a11</t>
+  </si>
+  <si>
+    <t>a14 - a15</t>
+  </si>
+  <si>
+    <t>a2 - a4</t>
+  </si>
+  <si>
+    <t>a6 - a8</t>
+  </si>
+  <si>
+    <t>a10 - a12</t>
+  </si>
+  <si>
+    <t>a14 - a16</t>
+  </si>
+  <si>
+    <t>a3 - a4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a7 - a8 </t>
+  </si>
+  <si>
+    <t>a11 - a12</t>
+  </si>
+  <si>
+    <t>a15 - a16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,8 +192,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="19">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -119,13 +214,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -140,37 +265,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -183,66 +278,6 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -374,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -387,13 +422,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,6 +446,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -459,7 +500,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -491,9 +532,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -525,6 +567,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -700,68 +743,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="2.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="3">
         <v>4</v>
       </c>
-      <c r="G1" s="16">
+      <c r="G1" s="12">
         <v>1212</v>
       </c>
-      <c r="H1" s="10" t="b">
+      <c r="H1" s="6" t="b">
         <f>a+C3&lt;=b+B3</f>
         <v>1</v>
       </c>
-      <c r="I1" s="16">
+      <c r="I1" s="12">
         <v>1323</v>
       </c>
-      <c r="J1" s="10" t="b">
+      <c r="J1" s="6" t="b">
         <f>b+D4&lt;=D2+C4</f>
         <v>1</v>
       </c>
-      <c r="K1" s="16">
+      <c r="K1" s="12">
         <v>2312</v>
       </c>
-      <c r="L1" s="10" t="b">
+      <c r="L1" s="6" t="b">
         <f>B3+C4&lt;=C3+B4</f>
         <v>1</v>
       </c>
-      <c r="M1" s="16">
+      <c r="M1" s="12">
         <v>2423</v>
       </c>
-      <c r="N1" s="13" t="b">
+      <c r="N1" s="9" t="b">
         <f>C3+D5&lt;=D3+C5</f>
         <v>1</v>
       </c>
@@ -784,47 +827,47 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1</v>
-      </c>
-      <c r="G2" s="17">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.28835452748087498</v>
+      </c>
+      <c r="C2">
+        <v>0.28835452748087498</v>
+      </c>
+      <c r="D2">
+        <v>0.28835452748087498</v>
+      </c>
+      <c r="E2">
+        <v>0.28835452748087498</v>
+      </c>
+      <c r="G2" s="13">
         <v>1213</v>
       </c>
-      <c r="H2" s="11" t="b">
+      <c r="H2" s="7" t="b">
         <f>a+D3&lt;=D2+B3</f>
         <v>1</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="13">
         <v>1324</v>
       </c>
-      <c r="J2" s="11" t="b">
+      <c r="J2" s="7" t="b">
         <f>b+E4&lt;=E2+C4</f>
         <v>1</v>
       </c>
-      <c r="K2" s="17">
+      <c r="K2" s="13">
         <v>2313</v>
       </c>
-      <c r="L2" s="11" t="b">
+      <c r="L2" s="7" t="b">
         <f>B3+D4&lt;=D3+B4</f>
         <v>1</v>
       </c>
-      <c r="M2" s="17">
+      <c r="M2" s="13">
         <v>2424</v>
       </c>
-      <c r="N2" s="14" t="b">
+      <c r="N2" s="10" t="b">
         <f>C3+E5&lt;=E3+C5</f>
         <v>1</v>
       </c>
@@ -835,63 +878,63 @@
         <v>1875748724</v>
       </c>
       <c r="R2">
-        <f>Q2/60</f>
+        <f t="shared" ref="R2:S13" si="0">Q2/60</f>
         <v>31262478.733333334</v>
       </c>
       <c r="S2">
-        <f>R2/60</f>
+        <f t="shared" si="0"/>
         <v>521041.31222222222</v>
       </c>
       <c r="T2">
-        <f>S2/24</f>
+        <f t="shared" ref="T2:T13" si="1">S2/24</f>
         <v>21710.054675925927</v>
       </c>
       <c r="U2">
-        <f>T2/365</f>
+        <f t="shared" ref="U2:U13" si="2">T2/365</f>
         <v>59.479601851851854</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="5">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-      <c r="G3" s="17">
+      <c r="B3">
+        <v>5.9367510148346501</v>
+      </c>
+      <c r="C3">
+        <v>5.9367510148346501</v>
+      </c>
+      <c r="D3">
+        <v>4.23214255525928</v>
+      </c>
+      <c r="E3">
+        <v>4.23214255525928</v>
+      </c>
+      <c r="G3" s="13">
         <v>1214</v>
       </c>
-      <c r="H3" s="11" t="b">
+      <c r="H3" s="7" t="b">
         <f>a+E3&lt;=E2+B3</f>
         <v>1</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="13">
         <v>1334</v>
       </c>
-      <c r="J3" s="11" t="b">
+      <c r="J3" s="7" t="b">
         <f>D2+E4&lt;=E2+D4</f>
         <v>1</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="13">
         <v>2314</v>
       </c>
-      <c r="L3" s="11" t="b">
+      <c r="L3" s="7" t="b">
         <f>B3+E4&lt;=E3+B4</f>
         <v>1</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="13">
         <v>2434</v>
       </c>
-      <c r="N3" s="14" t="b">
+      <c r="N3" s="10" t="b">
         <f>D3+E5&lt;=E3+D5</f>
         <v>1</v>
       </c>
@@ -902,63 +945,63 @@
         <v>953514014</v>
       </c>
       <c r="R3">
-        <f>Q3/60</f>
+        <f t="shared" si="0"/>
         <v>15891900.233333332</v>
       </c>
       <c r="S3">
-        <f>R3/60</f>
+        <f t="shared" si="0"/>
         <v>264865.00388888887</v>
       </c>
       <c r="T3">
-        <f>S3/24</f>
+        <f t="shared" si="1"/>
         <v>11036.041828703703</v>
       </c>
       <c r="U3">
-        <f>T3/365</f>
+        <f t="shared" si="2"/>
         <v>30.23573103754439</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="5">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="6">
-        <v>2</v>
-      </c>
-      <c r="G4" s="17">
+      <c r="B4">
+        <v>8.3086566645424007</v>
+      </c>
+      <c r="C4">
+        <v>8.3086566645424007</v>
+      </c>
+      <c r="D4">
+        <v>6.2533544883607597</v>
+      </c>
+      <c r="E4">
+        <v>1.38397080926345</v>
+      </c>
+      <c r="G4" s="13">
         <v>1223</v>
       </c>
-      <c r="H4" s="11" t="b">
+      <c r="H4" s="7" t="b">
         <f>b+D3&lt;=D2+C3</f>
         <v>1</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="13">
         <v>1412</v>
       </c>
-      <c r="J4" s="11" t="b">
+      <c r="J4" s="7" t="b">
         <f>a+C5&lt;=b+B5</f>
         <v>1</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="13">
         <v>2323</v>
       </c>
-      <c r="L4" s="11" t="b">
+      <c r="L4" s="7" t="b">
         <f>C3+D4&lt;=D3+C4</f>
         <v>1</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="13">
         <v>3412</v>
       </c>
-      <c r="N4" s="14" t="b">
+      <c r="N4" s="10" t="b">
         <f>B4+C5&lt;=C4+B5</f>
         <v>1</v>
       </c>
@@ -969,63 +1012,63 @@
         <v>347086218</v>
       </c>
       <c r="R4">
-        <f>Q4/60</f>
+        <f t="shared" si="0"/>
         <v>5784770.2999999998</v>
       </c>
       <c r="S4">
-        <f>R4/60</f>
+        <f t="shared" si="0"/>
         <v>96412.838333333333</v>
       </c>
       <c r="T4">
-        <f>S4/24</f>
+        <f t="shared" si="1"/>
         <v>4017.2015972222221</v>
       </c>
       <c r="U4">
-        <f>T4/365</f>
+        <f t="shared" si="2"/>
         <v>11.006031773211568</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" thickBot="1">
-      <c r="A5" s="7">
+    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
-        <v>3</v>
-      </c>
-      <c r="C5" s="8">
-        <v>3</v>
-      </c>
-      <c r="D5" s="8">
-        <v>3</v>
-      </c>
-      <c r="E5" s="9">
-        <v>1</v>
-      </c>
-      <c r="G5" s="17">
+      <c r="B5">
+        <v>8.3086566645424007</v>
+      </c>
+      <c r="C5">
+        <v>8.3086566645424007</v>
+      </c>
+      <c r="D5">
+        <v>6.2533544883607597</v>
+      </c>
+      <c r="E5">
+        <v>1.38397080926345</v>
+      </c>
+      <c r="G5" s="13">
         <v>1224</v>
       </c>
-      <c r="H5" s="11" t="b">
+      <c r="H5" s="7" t="b">
         <f>b+E3&lt;=E2+C3</f>
         <v>1</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="13">
         <v>1413</v>
       </c>
-      <c r="J5" s="11" t="b">
+      <c r="J5" s="7" t="b">
         <f>a+D5&lt;=D2+B5</f>
         <v>1</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="13">
         <v>2324</v>
       </c>
-      <c r="L5" s="11" t="b">
+      <c r="L5" s="7" t="b">
         <f>C3+E4&lt;=E3+C4</f>
         <v>1</v>
       </c>
-      <c r="M5" s="17">
+      <c r="M5" s="13">
         <v>3413</v>
       </c>
-      <c r="N5" s="14" t="b">
+      <c r="N5" s="10" t="b">
         <f>B4+D5&lt;=D4+B5</f>
         <v>1</v>
       </c>
@@ -1036,48 +1079,48 @@
         <v>127919842</v>
       </c>
       <c r="R5">
-        <f>Q5/60</f>
+        <f t="shared" si="0"/>
         <v>2131997.3666666667</v>
       </c>
       <c r="S5">
-        <f>R5/60</f>
+        <f t="shared" si="0"/>
         <v>35533.289444444446</v>
       </c>
       <c r="T5">
-        <f>S5/24</f>
+        <f t="shared" si="1"/>
         <v>1480.5537268518519</v>
       </c>
       <c r="U5">
-        <f>T5/365</f>
+        <f t="shared" si="2"/>
         <v>4.0563115804160326</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
-      <c r="G6" s="17">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G6" s="13">
         <v>1234</v>
       </c>
-      <c r="H6" s="11" t="b">
+      <c r="H6" s="7" t="b">
         <f>D2+E3&lt;=E2+D3</f>
         <v>1</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="13">
         <v>1414</v>
       </c>
-      <c r="J6" s="11" t="b">
+      <c r="J6" s="7" t="b">
         <f>a+E5&lt;=E2+B5</f>
         <v>1</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="13">
         <v>2334</v>
       </c>
-      <c r="L6" s="11" t="b">
+      <c r="L6" s="7" t="b">
         <f>D3+E4&lt;=E3+D4</f>
         <v>1</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="13">
         <v>3414</v>
       </c>
-      <c r="N6" s="14" t="b">
+      <c r="N6" s="10" t="b">
         <f>B4+E5&lt;=E4+B5</f>
         <v>1</v>
       </c>
@@ -1088,23 +1131,23 @@
         <v>39620267</v>
       </c>
       <c r="R6">
-        <f>Q6/60</f>
+        <f t="shared" si="0"/>
         <v>660337.78333333333</v>
       </c>
       <c r="S6">
-        <f>R6/60</f>
+        <f t="shared" si="0"/>
         <v>11005.629722222222</v>
       </c>
       <c r="T6">
-        <f>S6/24</f>
+        <f t="shared" si="1"/>
         <v>458.56790509259258</v>
       </c>
       <c r="U6">
-        <f>T6/365</f>
+        <f t="shared" si="2"/>
         <v>1.2563504249112125</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1</v>
       </c>
@@ -1117,31 +1160,31 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="13">
         <v>1312</v>
       </c>
-      <c r="H7" s="11" t="b">
+      <c r="H7" s="7" t="b">
         <f>a+C4&lt;=b+B4</f>
         <v>1</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="13">
         <v>1423</v>
       </c>
-      <c r="J7" s="11" t="b">
+      <c r="J7" s="7" t="b">
         <f>b+D5&lt;=D2+C5</f>
         <v>1</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="13">
         <v>2412</v>
       </c>
-      <c r="L7" s="11" t="b">
+      <c r="L7" s="7" t="b">
         <f>B3+C5&lt;=C3+B5</f>
         <v>1</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="13">
         <v>3423</v>
       </c>
-      <c r="N7" s="14" t="b">
+      <c r="N7" s="10" t="b">
         <f>C4+D5&lt;=D4+C5</f>
         <v>1</v>
       </c>
@@ -1152,23 +1195,23 @@
         <v>18890852</v>
       </c>
       <c r="R7">
-        <f>Q7/60</f>
+        <f t="shared" si="0"/>
         <v>314847.53333333333</v>
       </c>
       <c r="S7">
-        <f>R7/60</f>
+        <f t="shared" si="0"/>
         <v>5247.4588888888884</v>
       </c>
       <c r="T7">
-        <f>S7/24</f>
+        <f t="shared" si="1"/>
         <v>218.64412037037036</v>
       </c>
       <c r="U7">
-        <f>T7/365</f>
+        <f t="shared" si="2"/>
         <v>0.59902498731608322</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1</v>
       </c>
@@ -1181,31 +1224,31 @@
       <c r="E8">
         <v>2</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="13">
         <v>1313</v>
       </c>
-      <c r="H8" s="11" t="b">
+      <c r="H8" s="7" t="b">
         <f>a+D4&lt;=D2+B4</f>
         <v>1</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="13">
         <v>1424</v>
       </c>
-      <c r="J8" s="11" t="b">
+      <c r="J8" s="7" t="b">
         <f>b+E5&lt;=E2+C5</f>
         <v>1</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="13">
         <v>2413</v>
       </c>
-      <c r="L8" s="11" t="b">
+      <c r="L8" s="7" t="b">
         <f>B3+D5&lt;=D3+B5</f>
         <v>1</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="13">
         <v>3424</v>
       </c>
-      <c r="N8" s="14" t="b">
+      <c r="N8" s="10" t="b">
         <f>C4+E5&lt;=E4+C5</f>
         <v>1</v>
       </c>
@@ -1216,23 +1259,23 @@
         <v>3264001</v>
       </c>
       <c r="R8">
-        <f>Q8/60</f>
+        <f t="shared" si="0"/>
         <v>54400.01666666667</v>
       </c>
       <c r="S8">
-        <f>R8/60</f>
+        <f t="shared" si="0"/>
         <v>906.66694444444454</v>
       </c>
       <c r="T8">
-        <f>S8/24</f>
+        <f t="shared" si="1"/>
         <v>37.777789351851858</v>
       </c>
       <c r="U8">
-        <f>T8/365</f>
+        <f t="shared" si="2"/>
         <v>0.10350079274479961</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" thickBot="1">
+    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>2</v>
       </c>
@@ -1245,31 +1288,31 @@
       <c r="E9">
         <v>3</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="14">
         <v>1314</v>
       </c>
-      <c r="H9" s="12" t="b">
+      <c r="H9" s="8" t="b">
         <f>a+E4&lt;=E2+B4</f>
         <v>1</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="14">
         <v>1434</v>
       </c>
-      <c r="J9" s="12" t="b">
+      <c r="J9" s="8" t="b">
         <f>D2+E5&lt;=E2+D5</f>
         <v>1</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="14">
         <v>2414</v>
       </c>
-      <c r="L9" s="12" t="b">
+      <c r="L9" s="8" t="b">
         <f>B3+E5&lt;=E3+B5</f>
         <v>1</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="14">
         <v>3434</v>
       </c>
-      <c r="N9" s="15" t="b">
+      <c r="N9" s="11" t="b">
         <f>D4+E5&lt;=E4+D5</f>
         <v>1</v>
       </c>
@@ -1280,23 +1323,23 @@
         <v>152126</v>
       </c>
       <c r="R9">
-        <f>Q9/60</f>
+        <f t="shared" si="0"/>
         <v>2535.4333333333334</v>
       </c>
       <c r="S9">
-        <f>R9/60</f>
+        <f t="shared" si="0"/>
         <v>42.257222222222225</v>
       </c>
       <c r="T9">
-        <f>S9/24</f>
+        <f t="shared" si="1"/>
         <v>1.7607175925925926</v>
       </c>
       <c r="U9">
-        <f>T9/365</f>
+        <f t="shared" si="2"/>
         <v>4.8238838153221719E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>3</v>
       </c>
@@ -1316,23 +1359,23 @@
         <v>22635</v>
       </c>
       <c r="R10">
-        <f>Q10/60</f>
+        <f t="shared" si="0"/>
         <v>377.25</v>
       </c>
       <c r="S10">
-        <f>R10/60</f>
+        <f t="shared" si="0"/>
         <v>6.2874999999999996</v>
       </c>
       <c r="T10">
-        <f>S10/24</f>
+        <f t="shared" si="1"/>
         <v>0.26197916666666665</v>
       </c>
       <c r="U10">
-        <f>T10/365</f>
+        <f t="shared" si="2"/>
         <v>7.1775114155251134E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="P11" t="s">
         <v>13</v>
       </c>
@@ -1340,23 +1383,23 @@
         <v>8545756</v>
       </c>
       <c r="R11">
-        <f>Q11/60</f>
+        <f t="shared" si="0"/>
         <v>142429.26666666666</v>
       </c>
       <c r="S11">
-        <f>R11/60</f>
+        <f t="shared" si="0"/>
         <v>2373.8211111111109</v>
       </c>
       <c r="T11">
-        <f>S11/24</f>
+        <f t="shared" si="1"/>
         <v>98.909212962962954</v>
       </c>
       <c r="U11">
-        <f>T11/365</f>
+        <f t="shared" si="2"/>
         <v>0.27098414510400809</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="P12" t="s">
         <v>14</v>
       </c>
@@ -1364,23 +1407,23 @@
         <v>1351573</v>
       </c>
       <c r="R12">
-        <f>Q12/60</f>
+        <f t="shared" si="0"/>
         <v>22526.216666666667</v>
       </c>
       <c r="S12">
-        <f>R12/60</f>
+        <f t="shared" si="0"/>
         <v>375.43694444444446</v>
       </c>
       <c r="T12">
-        <f>S12/24</f>
+        <f t="shared" si="1"/>
         <v>15.643206018518519</v>
       </c>
       <c r="U12">
-        <f>T12/365</f>
+        <f t="shared" si="2"/>
         <v>4.2858098680872654E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>6</v>
       </c>
@@ -1397,35 +1440,109 @@
         <v>205615</v>
       </c>
       <c r="R13">
-        <f>Q13/60</f>
+        <f t="shared" si="0"/>
         <v>3426.9166666666665</v>
       </c>
       <c r="S13">
-        <f>R13/60</f>
+        <f t="shared" si="0"/>
         <v>57.115277777777777</v>
       </c>
       <c r="T13">
-        <f>S13/24</f>
+        <f t="shared" si="1"/>
         <v>2.3798032407407406</v>
       </c>
       <c r="U13">
-        <f>T13/365</f>
+        <f t="shared" si="2"/>
         <v>6.5200088787417546E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="2:2">
+      <c r="H17">
+        <v>0.28835452748087498</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="2:2">
+      <c r="H18">
+        <v>0.28835452748087498</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>0.28835452748087498</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>0.28835452748087498</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>18</v>
+      </c>
+      <c r="H21">
+        <v>5.9367510148346501</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>5.9367510148346501</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>4.23214255525928</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>4.23214255525928</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>8.3086566645424007</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>8.3086566645424007</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>6.2533544883607597</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>1.38397080926345</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>8.3086566645424007</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>8.3086566645424007</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>6.2533544883607597</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>1.38397080926345</v>
       </c>
     </row>
   </sheetData>
@@ -1439,24 +1556,2753 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V88"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="J79" sqref="J79"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>VLOOKUP($A2,$T$2:$U$17,2)-VLOOKUP(B$1,$T$2:$U$17,2)</f>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:Q17" si="0">VLOOKUP($A2,$T$2:$U$17,2)-VLOOKUP(C$1,$T$2:$U$17,2)</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>-5.6483964873537751</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>-5.6483964873537751</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>-3.943788027778405</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>-3.943788027778405</v>
+      </c>
+      <c r="J2" s="15">
+        <f t="shared" si="0"/>
+        <v>-8.0203021370615257</v>
+      </c>
+      <c r="K2" s="15">
+        <f t="shared" si="0"/>
+        <v>-8.0203021370615257</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>-5.9649999608798847</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>-1.095616281782575</v>
+      </c>
+      <c r="N2" s="15">
+        <f t="shared" si="0"/>
+        <v>-8.0203021370615257</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>-8.0203021370615257</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>-5.9649999608798847</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>-1.095616281782575</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>0.28835452748087498</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B17" si="1">VLOOKUP($A3,$T$2:$U$17,2)-VLOOKUP(B$1,$T$2:$U$17,2)</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>-5.6483964873537751</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>-5.6483964873537751</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>-3.943788027778405</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>-3.943788027778405</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>-8.0203021370615257</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>-8.0203021370615257</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>-5.9649999608798847</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>-1.095616281782575</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>-8.0203021370615257</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="0"/>
+        <v>-8.0203021370615257</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>-5.9649999608798847</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="0"/>
+        <v>-1.095616281782575</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <v>0.28835452748087498</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>-5.6483964873537751</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>-5.6483964873537751</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>-3.943788027778405</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>-3.943788027778405</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>-8.0203021370615257</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>-8.0203021370615257</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>-5.9649999608798847</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>-1.095616281782575</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>-8.0203021370615257</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>-8.0203021370615257</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>-5.9649999608798847</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>-1.095616281782575</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="U4">
+        <v>0.28835452748087498</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>-5.6483964873537751</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>-5.6483964873537751</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>-3.943788027778405</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>-3.943788027778405</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>-8.0203021370615257</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>-8.0203021370615257</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>-5.9649999608798847</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>-1.095616281782575</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>-8.0203021370615257</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>-8.0203021370615257</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>-5.9649999608798847</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>-1.095616281782575</v>
+      </c>
+      <c r="T5">
+        <v>4</v>
+      </c>
+      <c r="U5">
+        <v>0.28835452748087498</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>5.6483964873537751</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>5.6483964873537751</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>5.6483964873537751</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>5.6483964873537751</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>1.7046084595753701</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>1.7046084595753701</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>-2.3719056497077506</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>-2.3719056497077506</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>-0.31660347352610962</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>4.5527802055712003</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>-2.3719056497077506</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>-2.3719056497077506</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>-0.31660347352610962</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>4.5527802055712003</v>
+      </c>
+      <c r="T6">
+        <v>5</v>
+      </c>
+      <c r="U6">
+        <v>5.9367510148346501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>5.6483964873537751</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>5.6483964873537751</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>5.6483964873537751</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>5.6483964873537751</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>1.7046084595753701</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>1.7046084595753701</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>-2.3719056497077506</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>-2.3719056497077506</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>-0.31660347352610962</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>4.5527802055712003</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>-2.3719056497077506</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>-2.3719056497077506</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>-0.31660347352610962</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>4.5527802055712003</v>
+      </c>
+      <c r="T7">
+        <v>6</v>
+      </c>
+      <c r="U7">
+        <v>5.9367510148346501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>3.943788027778405</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>3.943788027778405</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>3.943788027778405</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>3.943788027778405</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>-1.7046084595753701</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>-1.7046084595753701</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>-4.0765141092831207</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>-4.0765141092831207</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>-2.0212119331014797</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>2.8481717459958302</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>-4.0765141092831207</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>-4.0765141092831207</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>-2.0212119331014797</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>2.8481717459958302</v>
+      </c>
+      <c r="T8">
+        <v>7</v>
+      </c>
+      <c r="U8">
+        <v>4.23214255525928</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>3.943788027778405</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>3.943788027778405</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>3.943788027778405</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>3.943788027778405</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>-1.7046084595753701</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>-1.7046084595753701</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>-4.0765141092831207</v>
+      </c>
+      <c r="K9" s="15">
+        <f t="shared" si="0"/>
+        <v>-4.0765141092831207</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>-2.0212119331014797</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>2.8481717459958302</v>
+      </c>
+      <c r="N9" s="15">
+        <f t="shared" si="0"/>
+        <v>-4.0765141092831207</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>-4.0765141092831207</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>-2.0212119331014797</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>2.8481717459958302</v>
+      </c>
+      <c r="T9">
+        <v>8</v>
+      </c>
+      <c r="U9">
+        <v>4.23214255525928</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>8.0203021370615257</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>8.0203021370615257</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>8.0203021370615257</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>8.0203021370615257</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>2.3719056497077506</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>2.3719056497077506</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>4.0765141092831207</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>4.0765141092831207</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>2.055302176181641</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>6.924685855278951</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>2.055302176181641</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>6.924685855278951</v>
+      </c>
+      <c r="T10">
+        <v>9</v>
+      </c>
+      <c r="U10">
+        <v>8.3086566645424007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>8.0203021370615257</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>8.0203021370615257</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>8.0203021370615257</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>8.0203021370615257</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>2.3719056497077506</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>2.3719056497077506</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>4.0765141092831207</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>4.0765141092831207</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>2.055302176181641</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>6.924685855278951</v>
+      </c>
+      <c r="N11" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>2.055302176181641</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>6.924685855278951</v>
+      </c>
+      <c r="T11">
+        <v>10</v>
+      </c>
+      <c r="U11">
+        <v>8.3086566645424007</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>5.9649999608798847</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>5.9649999608798847</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>5.9649999608798847</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>5.9649999608798847</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0.31660347352610962</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0.31660347352610962</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>2.0212119331014797</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>2.0212119331014797</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>-2.055302176181641</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>-2.055302176181641</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>4.86938367909731</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>-2.055302176181641</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>-2.055302176181641</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>4.86938367909731</v>
+      </c>
+      <c r="T12">
+        <v>11</v>
+      </c>
+      <c r="U12">
+        <v>6.2533544883607597</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>1.095616281782575</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>1.095616281782575</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1.095616281782575</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1.095616281782575</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>-4.5527802055712003</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>-4.5527802055712003</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>-2.8481717459958302</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>-2.8481717459958302</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>-6.924685855278951</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>-6.924685855278951</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>-4.86938367909731</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>-6.924685855278951</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>-6.924685855278951</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>-4.86938367909731</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>12</v>
+      </c>
+      <c r="U13">
+        <v>1.38397080926345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>8.0203021370615257</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>8.0203021370615257</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>8.0203021370615257</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>8.0203021370615257</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>2.3719056497077506</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>2.3719056497077506</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>4.0765141092831207</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>4.0765141092831207</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>2.055302176181641</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>6.924685855278951</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>2.055302176181641</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>6.924685855278951</v>
+      </c>
+      <c r="T14">
+        <v>13</v>
+      </c>
+      <c r="U14">
+        <v>8.3086566645424007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>8.0203021370615257</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>8.0203021370615257</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>8.0203021370615257</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>8.0203021370615257</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>2.3719056497077506</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>2.3719056497077506</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>4.0765141092831207</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>4.0765141092831207</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>2.055302176181641</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>6.924685855278951</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>2.055302176181641</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>6.924685855278951</v>
+      </c>
+      <c r="T15">
+        <v>14</v>
+      </c>
+      <c r="U15">
+        <v>8.3086566645424007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>5.9649999608798847</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>5.9649999608798847</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>5.9649999608798847</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>5.9649999608798847</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0.31660347352610962</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0.31660347352610962</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>2.0212119331014797</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>2.0212119331014797</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>-2.055302176181641</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>-2.055302176181641</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>4.86938367909731</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>-2.055302176181641</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>-2.055302176181641</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="0"/>
+        <v>4.86938367909731</v>
+      </c>
+      <c r="T16">
+        <v>15</v>
+      </c>
+      <c r="U16">
+        <v>6.2533544883607597</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>1.095616281782575</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>1.095616281782575</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>1.095616281782575</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1.095616281782575</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>-4.5527802055712003</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>-4.5527802055712003</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>-2.8481717459958302</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>-2.8481717459958302</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>-6.924685855278951</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>-6.924685855278951</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>-4.86938367909731</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>-6.924685855278951</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>-6.924685855278951</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="0"/>
+        <v>-4.86938367909731</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>16</v>
+      </c>
+      <c r="U17">
+        <v>1.38397080926345</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="N23">
+        <v>0.28835452748087498</v>
+      </c>
+      <c r="O23">
+        <v>8.3086566645424007</v>
+      </c>
+      <c r="P23">
+        <v>8.3086566645424007</v>
+      </c>
+      <c r="Q23">
+        <v>8.3086566645424007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <f>FACT(16)/(FACT(4)*FACT(12))</f>
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C30" s="16">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <v>7</v>
+      </c>
+      <c r="J30">
+        <v>8</v>
+      </c>
+      <c r="K30" s="16">
+        <v>9</v>
+      </c>
+      <c r="L30" s="16">
+        <v>10</v>
+      </c>
+      <c r="M30">
+        <v>11</v>
+      </c>
+      <c r="N30">
+        <v>12</v>
+      </c>
+      <c r="O30" s="16">
+        <v>13</v>
+      </c>
+      <c r="P30">
+        <v>14</v>
+      </c>
+      <c r="Q30">
+        <v>15</v>
+      </c>
+      <c r="R30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B31" s="16">
+        <v>1</v>
+      </c>
+      <c r="C31" s="16">
+        <v>0</v>
+      </c>
+      <c r="D31" s="16">
+        <v>0</v>
+      </c>
+      <c r="E31" s="16">
+        <v>0</v>
+      </c>
+      <c r="F31" s="16">
+        <v>0</v>
+      </c>
+      <c r="G31" s="16">
+        <v>-5.6483964873537751</v>
+      </c>
+      <c r="H31" s="16">
+        <v>-5.6483964873537751</v>
+      </c>
+      <c r="I31" s="16">
+        <v>-3.943788027778405</v>
+      </c>
+      <c r="J31" s="16">
+        <v>-3.943788027778405</v>
+      </c>
+      <c r="K31" s="16">
+        <v>-8.0203021370615257</v>
+      </c>
+      <c r="L31" s="16">
+        <v>-8.0203021370615257</v>
+      </c>
+      <c r="M31" s="16">
+        <v>-5.9649999608798847</v>
+      </c>
+      <c r="N31" s="16">
+        <v>-1.095616281782575</v>
+      </c>
+      <c r="O31" s="16">
+        <v>-8.0203021370615257</v>
+      </c>
+      <c r="P31" s="16">
+        <v>-8.0203021370615257</v>
+      </c>
+      <c r="Q31" s="16">
+        <v>-5.9649999608798847</v>
+      </c>
+      <c r="R31" s="16">
+        <v>-1.095616281782575</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>0.28835452748087498</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" s="16">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>-5.6483964873537751</v>
+      </c>
+      <c r="H32">
+        <v>-5.6483964873537751</v>
+      </c>
+      <c r="I32">
+        <v>-3.943788027778405</v>
+      </c>
+      <c r="J32">
+        <v>-3.943788027778405</v>
+      </c>
+      <c r="K32" s="16">
+        <v>-8.0203021370615257</v>
+      </c>
+      <c r="L32" s="16">
+        <v>-8.0203021370615257</v>
+      </c>
+      <c r="M32">
+        <v>-5.9649999608798847</v>
+      </c>
+      <c r="N32">
+        <v>-1.095616281782575</v>
+      </c>
+      <c r="O32" s="16">
+        <v>-8.0203021370615257</v>
+      </c>
+      <c r="P32">
+        <v>-8.0203021370615257</v>
+      </c>
+      <c r="Q32">
+        <v>-5.9649999608798847</v>
+      </c>
+      <c r="R32">
+        <v>-1.095616281782575</v>
+      </c>
+      <c r="U32">
+        <v>2</v>
+      </c>
+      <c r="V32">
+        <v>0.28835452748087498</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" s="16">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>-5.6483964873537751</v>
+      </c>
+      <c r="H33">
+        <v>-5.6483964873537751</v>
+      </c>
+      <c r="I33">
+        <v>-3.943788027778405</v>
+      </c>
+      <c r="J33">
+        <v>-3.943788027778405</v>
+      </c>
+      <c r="K33" s="16">
+        <v>-8.0203021370615257</v>
+      </c>
+      <c r="L33" s="16">
+        <v>-8.0203021370615257</v>
+      </c>
+      <c r="M33">
+        <v>-5.9649999608798847</v>
+      </c>
+      <c r="N33">
+        <v>-1.095616281782575</v>
+      </c>
+      <c r="O33" s="16">
+        <v>-8.0203021370615257</v>
+      </c>
+      <c r="P33">
+        <v>-8.0203021370615257</v>
+      </c>
+      <c r="Q33">
+        <v>-5.9649999608798847</v>
+      </c>
+      <c r="R33">
+        <v>-1.095616281782575</v>
+      </c>
+      <c r="U33">
+        <v>3</v>
+      </c>
+      <c r="V33">
+        <v>0.28835452748087498</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34" s="16">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>-5.6483964873537751</v>
+      </c>
+      <c r="H34">
+        <v>-5.6483964873537751</v>
+      </c>
+      <c r="I34">
+        <v>-3.943788027778405</v>
+      </c>
+      <c r="J34">
+        <v>-3.943788027778405</v>
+      </c>
+      <c r="K34" s="16">
+        <v>-8.0203021370615257</v>
+      </c>
+      <c r="L34" s="16">
+        <v>-8.0203021370615257</v>
+      </c>
+      <c r="M34">
+        <v>-5.9649999608798847</v>
+      </c>
+      <c r="N34">
+        <v>-1.095616281782575</v>
+      </c>
+      <c r="O34" s="16">
+        <v>-8.0203021370615257</v>
+      </c>
+      <c r="P34">
+        <v>-8.0203021370615257</v>
+      </c>
+      <c r="Q34">
+        <v>-5.9649999608798847</v>
+      </c>
+      <c r="R34">
+        <v>-1.095616281782575</v>
+      </c>
+      <c r="U34">
+        <v>4</v>
+      </c>
+      <c r="V34">
+        <v>0.28835452748087498</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35" s="16">
+        <v>5.6483964873537751</v>
+      </c>
+      <c r="D35">
+        <v>5.6483964873537751</v>
+      </c>
+      <c r="E35">
+        <v>5.6483964873537751</v>
+      </c>
+      <c r="F35">
+        <v>5.6483964873537751</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>1.7046084595753701</v>
+      </c>
+      <c r="J35">
+        <v>1.7046084595753701</v>
+      </c>
+      <c r="K35" s="16">
+        <v>-2.3719056497077506</v>
+      </c>
+      <c r="L35" s="16">
+        <v>-2.3719056497077506</v>
+      </c>
+      <c r="M35">
+        <v>-0.31660347352610962</v>
+      </c>
+      <c r="N35">
+        <v>4.5527802055712003</v>
+      </c>
+      <c r="O35" s="16">
+        <v>-2.3719056497077506</v>
+      </c>
+      <c r="P35">
+        <v>-2.3719056497077506</v>
+      </c>
+      <c r="Q35">
+        <v>-0.31660347352610962</v>
+      </c>
+      <c r="R35">
+        <v>4.5527802055712003</v>
+      </c>
+      <c r="U35">
+        <v>5</v>
+      </c>
+      <c r="V35">
+        <v>5.9367510148346501</v>
+      </c>
+    </row>
+    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>6</v>
+      </c>
+      <c r="C36" s="16">
+        <v>5.6483964873537751</v>
+      </c>
+      <c r="D36">
+        <v>5.6483964873537751</v>
+      </c>
+      <c r="E36">
+        <v>5.6483964873537751</v>
+      </c>
+      <c r="F36">
+        <v>5.6483964873537751</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>1.7046084595753701</v>
+      </c>
+      <c r="J36">
+        <v>1.7046084595753701</v>
+      </c>
+      <c r="K36" s="16">
+        <v>-2.3719056497077506</v>
+      </c>
+      <c r="L36" s="16">
+        <v>-2.3719056497077506</v>
+      </c>
+      <c r="M36">
+        <v>-0.31660347352610962</v>
+      </c>
+      <c r="N36">
+        <v>4.5527802055712003</v>
+      </c>
+      <c r="O36" s="16">
+        <v>-2.3719056497077506</v>
+      </c>
+      <c r="P36">
+        <v>-2.3719056497077506</v>
+      </c>
+      <c r="Q36">
+        <v>-0.31660347352610962</v>
+      </c>
+      <c r="R36">
+        <v>4.5527802055712003</v>
+      </c>
+      <c r="U36">
+        <v>6</v>
+      </c>
+      <c r="V36">
+        <v>5.9367510148346501</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>7</v>
+      </c>
+      <c r="C37" s="16">
+        <v>3.943788027778405</v>
+      </c>
+      <c r="D37">
+        <v>3.943788027778405</v>
+      </c>
+      <c r="E37">
+        <v>3.943788027778405</v>
+      </c>
+      <c r="F37">
+        <v>3.943788027778405</v>
+      </c>
+      <c r="G37">
+        <v>-1.7046084595753701</v>
+      </c>
+      <c r="H37">
+        <v>-1.7046084595753701</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37" s="16">
+        <v>-4.0765141092831207</v>
+      </c>
+      <c r="L37" s="16">
+        <v>-4.0765141092831207</v>
+      </c>
+      <c r="M37">
+        <v>-2.0212119331014797</v>
+      </c>
+      <c r="N37">
+        <v>2.8481717459958302</v>
+      </c>
+      <c r="O37" s="16">
+        <v>-4.0765141092831207</v>
+      </c>
+      <c r="P37">
+        <v>-4.0765141092831207</v>
+      </c>
+      <c r="Q37">
+        <v>-2.0212119331014797</v>
+      </c>
+      <c r="R37">
+        <v>2.8481717459958302</v>
+      </c>
+      <c r="U37">
+        <v>7</v>
+      </c>
+      <c r="V37">
+        <v>4.23214255525928</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>8</v>
+      </c>
+      <c r="C38" s="16">
+        <v>3.943788027778405</v>
+      </c>
+      <c r="D38">
+        <v>3.943788027778405</v>
+      </c>
+      <c r="E38">
+        <v>3.943788027778405</v>
+      </c>
+      <c r="F38">
+        <v>3.943788027778405</v>
+      </c>
+      <c r="G38">
+        <v>-1.7046084595753701</v>
+      </c>
+      <c r="H38">
+        <v>-1.7046084595753701</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" s="16">
+        <v>-4.0765141092831207</v>
+      </c>
+      <c r="L38" s="16">
+        <v>-4.0765141092831207</v>
+      </c>
+      <c r="M38">
+        <v>-2.0212119331014797</v>
+      </c>
+      <c r="N38">
+        <v>2.8481717459958302</v>
+      </c>
+      <c r="O38" s="16">
+        <v>-4.0765141092831207</v>
+      </c>
+      <c r="P38">
+        <v>-4.0765141092831207</v>
+      </c>
+      <c r="Q38">
+        <v>-2.0212119331014797</v>
+      </c>
+      <c r="R38">
+        <v>2.8481717459958302</v>
+      </c>
+      <c r="U38">
+        <v>8</v>
+      </c>
+      <c r="V38">
+        <v>4.23214255525928</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B39" s="16">
+        <v>9</v>
+      </c>
+      <c r="C39" s="16">
+        <v>8.0203021370615257</v>
+      </c>
+      <c r="D39" s="16">
+        <v>8.0203021370615257</v>
+      </c>
+      <c r="E39" s="16">
+        <v>8.0203021370615257</v>
+      </c>
+      <c r="F39" s="16">
+        <v>8.0203021370615257</v>
+      </c>
+      <c r="G39" s="16">
+        <v>2.3719056497077506</v>
+      </c>
+      <c r="H39" s="16">
+        <v>2.3719056497077506</v>
+      </c>
+      <c r="I39" s="16">
+        <v>4.0765141092831207</v>
+      </c>
+      <c r="J39" s="16">
+        <v>4.0765141092831207</v>
+      </c>
+      <c r="K39" s="16">
+        <v>0</v>
+      </c>
+      <c r="L39" s="16">
+        <v>0</v>
+      </c>
+      <c r="M39" s="16">
+        <v>2.055302176181641</v>
+      </c>
+      <c r="N39" s="16">
+        <v>6.924685855278951</v>
+      </c>
+      <c r="O39" s="16">
+        <v>0</v>
+      </c>
+      <c r="P39" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="16">
+        <v>2.055302176181641</v>
+      </c>
+      <c r="R39" s="16">
+        <v>6.924685855278951</v>
+      </c>
+      <c r="U39">
+        <v>9</v>
+      </c>
+      <c r="V39">
+        <v>8.3086566645424007</v>
+      </c>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B40" s="16">
+        <v>10</v>
+      </c>
+      <c r="C40" s="16">
+        <v>8.0203021370615257</v>
+      </c>
+      <c r="D40" s="16">
+        <v>8.0203021370615257</v>
+      </c>
+      <c r="E40" s="16">
+        <v>8.0203021370615257</v>
+      </c>
+      <c r="F40" s="16">
+        <v>8.0203021370615257</v>
+      </c>
+      <c r="G40" s="16">
+        <v>2.3719056497077506</v>
+      </c>
+      <c r="H40" s="16">
+        <v>2.3719056497077506</v>
+      </c>
+      <c r="I40" s="16">
+        <v>4.0765141092831207</v>
+      </c>
+      <c r="J40" s="16">
+        <v>4.0765141092831207</v>
+      </c>
+      <c r="K40" s="16">
+        <v>0</v>
+      </c>
+      <c r="L40" s="16">
+        <v>0</v>
+      </c>
+      <c r="M40" s="16">
+        <v>2.055302176181641</v>
+      </c>
+      <c r="N40" s="16">
+        <v>6.924685855278951</v>
+      </c>
+      <c r="O40" s="16">
+        <v>0</v>
+      </c>
+      <c r="P40" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="16">
+        <v>2.055302176181641</v>
+      </c>
+      <c r="R40" s="16">
+        <v>6.924685855278951</v>
+      </c>
+      <c r="U40">
+        <v>10</v>
+      </c>
+      <c r="V40">
+        <v>8.3086566645424007</v>
+      </c>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>11</v>
+      </c>
+      <c r="C41" s="16">
+        <v>5.9649999608798847</v>
+      </c>
+      <c r="D41">
+        <v>5.9649999608798847</v>
+      </c>
+      <c r="E41">
+        <v>5.9649999608798847</v>
+      </c>
+      <c r="F41">
+        <v>5.9649999608798847</v>
+      </c>
+      <c r="G41">
+        <v>0.31660347352610962</v>
+      </c>
+      <c r="H41">
+        <v>0.31660347352610962</v>
+      </c>
+      <c r="I41">
+        <v>2.0212119331014797</v>
+      </c>
+      <c r="J41">
+        <v>2.0212119331014797</v>
+      </c>
+      <c r="K41" s="16">
+        <v>-2.055302176181641</v>
+      </c>
+      <c r="L41" s="16">
+        <v>-2.055302176181641</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>4.86938367909731</v>
+      </c>
+      <c r="O41" s="16">
+        <v>-2.055302176181641</v>
+      </c>
+      <c r="P41">
+        <v>-2.055302176181641</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>4.86938367909731</v>
+      </c>
+      <c r="U41">
+        <v>11</v>
+      </c>
+      <c r="V41">
+        <v>6.2533544883607597</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>12</v>
+      </c>
+      <c r="C42" s="16">
+        <v>1.095616281782575</v>
+      </c>
+      <c r="D42">
+        <v>1.095616281782575</v>
+      </c>
+      <c r="E42">
+        <v>1.095616281782575</v>
+      </c>
+      <c r="F42">
+        <v>1.095616281782575</v>
+      </c>
+      <c r="G42">
+        <v>-4.5527802055712003</v>
+      </c>
+      <c r="H42">
+        <v>-4.5527802055712003</v>
+      </c>
+      <c r="I42">
+        <v>-2.8481717459958302</v>
+      </c>
+      <c r="J42">
+        <v>-2.8481717459958302</v>
+      </c>
+      <c r="K42" s="16">
+        <v>-6.924685855278951</v>
+      </c>
+      <c r="L42" s="16">
+        <v>-6.924685855278951</v>
+      </c>
+      <c r="M42">
+        <v>-4.86938367909731</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42" s="16">
+        <v>-6.924685855278951</v>
+      </c>
+      <c r="P42">
+        <v>-6.924685855278951</v>
+      </c>
+      <c r="Q42">
+        <v>-4.86938367909731</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>12</v>
+      </c>
+      <c r="V42">
+        <v>1.38397080926345</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B43" s="16">
+        <v>13</v>
+      </c>
+      <c r="C43" s="16">
+        <v>8.0203021370615257</v>
+      </c>
+      <c r="D43" s="16">
+        <v>8.0203021370615257</v>
+      </c>
+      <c r="E43" s="16">
+        <v>8.0203021370615257</v>
+      </c>
+      <c r="F43" s="16">
+        <v>8.0203021370615257</v>
+      </c>
+      <c r="G43" s="16">
+        <v>2.3719056497077506</v>
+      </c>
+      <c r="H43" s="16">
+        <v>2.3719056497077506</v>
+      </c>
+      <c r="I43" s="16">
+        <v>4.0765141092831207</v>
+      </c>
+      <c r="J43" s="16">
+        <v>4.0765141092831207</v>
+      </c>
+      <c r="K43" s="16">
+        <v>0</v>
+      </c>
+      <c r="L43" s="16">
+        <v>0</v>
+      </c>
+      <c r="M43" s="16">
+        <v>2.055302176181641</v>
+      </c>
+      <c r="N43" s="16">
+        <v>6.924685855278951</v>
+      </c>
+      <c r="O43" s="16">
+        <v>0</v>
+      </c>
+      <c r="P43" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="16">
+        <v>2.055302176181641</v>
+      </c>
+      <c r="R43" s="16">
+        <v>6.924685855278951</v>
+      </c>
+      <c r="U43">
+        <v>13</v>
+      </c>
+      <c r="V43">
+        <v>8.3086566645424007</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>14</v>
+      </c>
+      <c r="C44" s="16">
+        <v>8.0203021370615257</v>
+      </c>
+      <c r="D44">
+        <v>8.0203021370615257</v>
+      </c>
+      <c r="E44">
+        <v>8.0203021370615257</v>
+      </c>
+      <c r="F44">
+        <v>8.0203021370615257</v>
+      </c>
+      <c r="G44">
+        <v>2.3719056497077506</v>
+      </c>
+      <c r="H44">
+        <v>2.3719056497077506</v>
+      </c>
+      <c r="I44">
+        <v>4.0765141092831207</v>
+      </c>
+      <c r="J44">
+        <v>4.0765141092831207</v>
+      </c>
+      <c r="K44" s="16">
+        <v>0</v>
+      </c>
+      <c r="L44" s="16">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>2.055302176181641</v>
+      </c>
+      <c r="N44">
+        <v>6.924685855278951</v>
+      </c>
+      <c r="O44" s="16">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>2.055302176181641</v>
+      </c>
+      <c r="R44">
+        <v>6.924685855278951</v>
+      </c>
+      <c r="U44">
+        <v>14</v>
+      </c>
+      <c r="V44">
+        <v>8.3086566645424007</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>15</v>
+      </c>
+      <c r="C45" s="16">
+        <v>5.9649999608798847</v>
+      </c>
+      <c r="D45">
+        <v>5.9649999608798847</v>
+      </c>
+      <c r="E45">
+        <v>5.9649999608798847</v>
+      </c>
+      <c r="F45">
+        <v>5.9649999608798847</v>
+      </c>
+      <c r="G45">
+        <v>0.31660347352610962</v>
+      </c>
+      <c r="H45">
+        <v>0.31660347352610962</v>
+      </c>
+      <c r="I45">
+        <v>2.0212119331014797</v>
+      </c>
+      <c r="J45">
+        <v>2.0212119331014797</v>
+      </c>
+      <c r="K45" s="16">
+        <v>-2.055302176181641</v>
+      </c>
+      <c r="L45" s="16">
+        <v>-2.055302176181641</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>4.86938367909731</v>
+      </c>
+      <c r="O45" s="16">
+        <v>-2.055302176181641</v>
+      </c>
+      <c r="P45">
+        <v>-2.055302176181641</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>4.86938367909731</v>
+      </c>
+      <c r="U45">
+        <v>15</v>
+      </c>
+      <c r="V45">
+        <v>6.2533544883607597</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>16</v>
+      </c>
+      <c r="C46" s="16">
+        <v>1.095616281782575</v>
+      </c>
+      <c r="D46">
+        <v>1.095616281782575</v>
+      </c>
+      <c r="E46">
+        <v>1.095616281782575</v>
+      </c>
+      <c r="F46">
+        <v>1.095616281782575</v>
+      </c>
+      <c r="G46">
+        <v>-4.5527802055712003</v>
+      </c>
+      <c r="H46">
+        <v>-4.5527802055712003</v>
+      </c>
+      <c r="I46">
+        <v>-2.8481717459958302</v>
+      </c>
+      <c r="J46">
+        <v>-2.8481717459958302</v>
+      </c>
+      <c r="K46" s="16">
+        <v>-6.924685855278951</v>
+      </c>
+      <c r="L46" s="16">
+        <v>-6.924685855278951</v>
+      </c>
+      <c r="M46">
+        <v>-4.86938367909731</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46" s="16">
+        <v>-6.924685855278951</v>
+      </c>
+      <c r="P46">
+        <v>-6.924685855278951</v>
+      </c>
+      <c r="Q46">
+        <v>-4.86938367909731</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>16</v>
+      </c>
+      <c r="V46">
+        <v>1.38397080926345</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="O47" s="16"/>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="G49">
+        <v>6</v>
+      </c>
+      <c r="H49">
+        <v>7</v>
+      </c>
+      <c r="I49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>9</v>
+      </c>
+      <c r="G50">
+        <v>10</v>
+      </c>
+      <c r="H50">
+        <v>11</v>
+      </c>
+      <c r="I50">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>13</v>
+      </c>
+      <c r="G51">
+        <v>14</v>
+      </c>
+      <c r="H51">
+        <v>15</v>
+      </c>
+      <c r="I51">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" t="s">
+        <v>21</v>
+      </c>
+      <c r="D53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55" t="s">
+        <v>21</v>
+      </c>
+      <c r="D55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" t="s">
+        <v>21</v>
+      </c>
+      <c r="D56" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>26</v>
+      </c>
+      <c r="C60" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>26</v>
+      </c>
+      <c r="C61" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" t="s">
+        <v>21</v>
+      </c>
+      <c r="D65" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" t="s">
+        <v>21</v>
+      </c>
+      <c r="D67" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>31</v>
+      </c>
+      <c r="C68" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>31</v>
+      </c>
+      <c r="C69" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>35</v>
+      </c>
+      <c r="C75" t="s">
+        <v>21</v>
+      </c>
+      <c r="D75" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>36</v>
+      </c>
+      <c r="C76" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>38</v>
+      </c>
+      <c r="C77" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>38</v>
+      </c>
+      <c r="C78" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>39</v>
+      </c>
+      <c r="C80" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>39</v>
+      </c>
+      <c r="C81" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>40</v>
+      </c>
+      <c r="C82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>42</v>
+      </c>
+      <c r="C83" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>42</v>
+      </c>
+      <c r="C84" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>42</v>
+      </c>
+      <c r="C85" t="s">
+        <v>21</v>
+      </c>
+      <c r="D85" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>43</v>
+      </c>
+      <c r="C86" t="s">
+        <v>21</v>
+      </c>
+      <c r="D86" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>43</v>
+      </c>
+      <c r="C87" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>44</v>
+      </c>
+      <c r="C88" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilantc\workspace\ipStuff\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="9495" windowHeight="4125" activeTab="1"/>
   </bookViews>
@@ -169,12 +164,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -500,7 +495,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -532,10 +527,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -567,7 +561,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -743,30 +736,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.875" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>1</v>
@@ -827,7 +820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -894,7 +887,7 @@
         <v>59.479601851851854</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -961,7 +954,7 @@
         <v>30.23573103754439</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1028,7 +1021,7 @@
         <v>11.006031773211568</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="15" thickBot="1">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -1095,7 +1088,7 @@
         <v>4.0563115804160326</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="G6" s="13">
         <v>1234</v>
       </c>
@@ -1147,7 +1140,7 @@
         <v>1.2563504249112125</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="B7">
         <v>1</v>
       </c>
@@ -1211,7 +1204,7 @@
         <v>0.59902498731608322</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21">
       <c r="B8">
         <v>1</v>
       </c>
@@ -1275,7 +1268,7 @@
         <v>0.10350079274479961</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" ht="15" thickBot="1">
       <c r="B9">
         <v>2</v>
       </c>
@@ -1339,7 +1332,7 @@
         <v>4.8238838153221719E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21">
       <c r="B10">
         <v>3</v>
       </c>
@@ -1375,7 +1368,7 @@
         <v>7.1775114155251134E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="P11" t="s">
         <v>13</v>
       </c>
@@ -1399,7 +1392,7 @@
         <v>0.27098414510400809</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="P12" t="s">
         <v>14</v>
       </c>
@@ -1423,7 +1416,7 @@
         <v>4.2858098680872654E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21">
       <c r="B13">
         <v>6</v>
       </c>
@@ -1456,7 +1449,7 @@
         <v>6.5200088787417546E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8">
       <c r="B17" t="s">
         <v>16</v>
       </c>
@@ -1464,7 +1457,7 @@
         <v>0.28835452748087498</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8">
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -1472,17 +1465,17 @@
         <v>0.28835452748087498</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8">
       <c r="H19">
         <v>0.28835452748087498</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8">
       <c r="H20">
         <v>0.28835452748087498</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8">
       <c r="B21" t="s">
         <v>18</v>
       </c>
@@ -1490,57 +1483,57 @@
         <v>5.9367510148346501</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8">
       <c r="H22">
         <v>5.9367510148346501</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8">
       <c r="H23">
         <v>4.23214255525928</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8">
       <c r="H24">
         <v>4.23214255525928</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8">
       <c r="H25">
         <v>8.3086566645424007</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8">
       <c r="H26">
         <v>8.3086566645424007</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8">
       <c r="H27">
         <v>6.2533544883607597</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8">
       <c r="H28">
         <v>1.38397080926345</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8">
       <c r="H29">
         <v>8.3086566645424007</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8">
       <c r="H30">
         <v>8.3086566645424007</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8">
       <c r="H31">
         <v>6.2533544883607597</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8">
       <c r="H32">
         <v>1.38397080926345</v>
       </c>
@@ -1556,23 +1549,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="J79" sqref="J79"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="17" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="17" width="12.75" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="3" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="B1">
         <v>1</v>
       </c>
@@ -1622,7 +1615,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1697,7 +1690,7 @@
         <v>0.28835452748087498</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1772,7 +1765,7 @@
         <v>0.28835452748087498</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1847,7 +1840,7 @@
         <v>0.28835452748087498</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1922,7 +1915,7 @@
         <v>0.28835452748087498</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1997,7 +1990,7 @@
         <v>5.9367510148346501</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2072,7 +2065,7 @@
         <v>5.9367510148346501</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2147,7 +2140,7 @@
         <v>4.23214255525928</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2222,7 +2215,7 @@
         <v>4.23214255525928</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2297,7 +2290,7 @@
         <v>8.3086566645424007</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2372,7 +2365,7 @@
         <v>8.3086566645424007</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2447,7 +2440,7 @@
         <v>6.2533544883607597</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2522,7 +2515,7 @@
         <v>1.38397080926345</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2597,7 +2590,7 @@
         <v>8.3086566645424007</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2672,7 +2665,7 @@
         <v>8.3086566645424007</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2747,7 +2740,7 @@
         <v>6.2533544883607597</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2822,7 +2815,7 @@
         <v>1.38397080926345</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22">
       <c r="N23">
         <v>0.28835452748087498</v>
       </c>
@@ -2836,13 +2829,13 @@
         <v>8.3086566645424007</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22">
       <c r="G24">
         <f>FACT(16)/(FACT(4)*FACT(12))</f>
         <v>1820</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22">
       <c r="C30" s="16">
         <v>1</v>
       </c>
@@ -2892,7 +2885,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22">
       <c r="B31" s="16">
         <v>1</v>
       </c>
@@ -2951,7 +2944,7 @@
         <v>0.28835452748087498</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22">
       <c r="B32">
         <v>2</v>
       </c>
@@ -3010,7 +3003,7 @@
         <v>0.28835452748087498</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:22">
       <c r="B33">
         <v>3</v>
       </c>
@@ -3069,7 +3062,7 @@
         <v>0.28835452748087498</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:22">
       <c r="B34">
         <v>4</v>
       </c>
@@ -3128,7 +3121,7 @@
         <v>0.28835452748087498</v>
       </c>
     </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:22">
       <c r="B35">
         <v>5</v>
       </c>
@@ -3187,7 +3180,7 @@
         <v>5.9367510148346501</v>
       </c>
     </row>
-    <row r="36" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:22">
       <c r="B36">
         <v>6</v>
       </c>
@@ -3246,7 +3239,7 @@
         <v>5.9367510148346501</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:22">
       <c r="B37">
         <v>7</v>
       </c>
@@ -3305,7 +3298,7 @@
         <v>4.23214255525928</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:22">
       <c r="B38">
         <v>8</v>
       </c>
@@ -3364,7 +3357,7 @@
         <v>4.23214255525928</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:22">
       <c r="B39" s="16">
         <v>9</v>
       </c>
@@ -3423,7 +3416,7 @@
         <v>8.3086566645424007</v>
       </c>
     </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:22">
       <c r="B40" s="16">
         <v>10</v>
       </c>
@@ -3482,7 +3475,7 @@
         <v>8.3086566645424007</v>
       </c>
     </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:22">
       <c r="B41">
         <v>11</v>
       </c>
@@ -3541,7 +3534,7 @@
         <v>6.2533544883607597</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:22">
       <c r="B42">
         <v>12</v>
       </c>
@@ -3600,7 +3593,7 @@
         <v>1.38397080926345</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:22">
       <c r="B43" s="16">
         <v>13</v>
       </c>
@@ -3659,7 +3652,7 @@
         <v>8.3086566645424007</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:22">
       <c r="B44">
         <v>14</v>
       </c>
@@ -3718,7 +3711,7 @@
         <v>8.3086566645424007</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:22">
       <c r="B45">
         <v>15</v>
       </c>
@@ -3777,7 +3770,7 @@
         <v>6.2533544883607597</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:22">
       <c r="B46">
         <v>16</v>
       </c>
@@ -3836,10 +3829,10 @@
         <v>1.38397080926345</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:22">
       <c r="O47" s="16"/>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:22">
       <c r="F48">
         <v>1</v>
       </c>
@@ -3853,7 +3846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9">
       <c r="F49">
         <v>5</v>
       </c>
@@ -3867,7 +3860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9">
       <c r="F50">
         <v>9</v>
       </c>
@@ -3881,7 +3874,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9">
       <c r="F51">
         <v>13</v>
       </c>
@@ -3895,7 +3888,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9">
       <c r="B53" t="s">
         <v>20</v>
       </c>
@@ -3906,7 +3899,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9">
       <c r="B54" t="s">
         <v>20</v>
       </c>
@@ -3917,7 +3910,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9">
       <c r="B55" t="s">
         <v>20</v>
       </c>
@@ -3928,7 +3921,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9">
       <c r="B56" t="s">
         <v>22</v>
       </c>
@@ -3939,7 +3932,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9">
       <c r="B57" t="s">
         <v>22</v>
       </c>
@@ -3950,7 +3943,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9">
       <c r="B58" t="s">
         <v>24</v>
       </c>
@@ -3961,7 +3954,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9">
       <c r="B59" t="s">
         <v>26</v>
       </c>
@@ -3972,7 +3965,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9">
       <c r="B60" t="s">
         <v>26</v>
       </c>
@@ -3983,7 +3976,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9">
       <c r="B61" t="s">
         <v>26</v>
       </c>
@@ -3994,7 +3987,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9">
       <c r="B62" t="s">
         <v>27</v>
       </c>
@@ -4005,7 +3998,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9">
       <c r="B63" t="s">
         <v>27</v>
       </c>
@@ -4016,7 +4009,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9">
       <c r="B64" t="s">
         <v>28</v>
       </c>
@@ -4027,7 +4020,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:4">
       <c r="B65" t="s">
         <v>30</v>
       </c>
@@ -4038,7 +4031,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:4">
       <c r="B66" t="s">
         <v>30</v>
       </c>
@@ -4049,7 +4042,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4">
       <c r="B67" t="s">
         <v>30</v>
       </c>
@@ -4060,7 +4053,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4">
       <c r="B68" t="s">
         <v>31</v>
       </c>
@@ -4071,7 +4064,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4">
       <c r="B69" t="s">
         <v>31</v>
       </c>
@@ -4082,7 +4075,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4">
       <c r="B70" t="s">
         <v>32</v>
       </c>
@@ -4093,7 +4086,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4">
       <c r="B71" t="s">
         <v>34</v>
       </c>
@@ -4104,7 +4097,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:4">
       <c r="B72" t="s">
         <v>34</v>
       </c>
@@ -4115,7 +4108,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4">
       <c r="B73" t="s">
         <v>34</v>
       </c>
@@ -4126,7 +4119,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:4">
       <c r="B74" t="s">
         <v>35</v>
       </c>
@@ -4137,7 +4130,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:4">
       <c r="B75" t="s">
         <v>35</v>
       </c>
@@ -4148,7 +4141,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:4">
       <c r="B76" t="s">
         <v>36</v>
       </c>
@@ -4159,7 +4152,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:4">
       <c r="B77" t="s">
         <v>38</v>
       </c>
@@ -4170,7 +4163,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:4">
       <c r="B78" t="s">
         <v>38</v>
       </c>
@@ -4181,7 +4174,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:4">
       <c r="B79" t="s">
         <v>38</v>
       </c>
@@ -4192,7 +4185,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:4">
       <c r="B80" t="s">
         <v>39</v>
       </c>
@@ -4203,7 +4196,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:4">
       <c r="B81" t="s">
         <v>39</v>
       </c>
@@ -4214,7 +4207,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:4">
       <c r="B82" t="s">
         <v>40</v>
       </c>
@@ -4225,7 +4218,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:4">
       <c r="B83" t="s">
         <v>42</v>
       </c>
@@ -4236,7 +4229,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:4">
       <c r="B84" t="s">
         <v>42</v>
       </c>
@@ -4247,7 +4240,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:4">
       <c r="B85" t="s">
         <v>42</v>
       </c>
@@ -4258,7 +4251,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:4">
       <c r="B86" t="s">
         <v>43</v>
       </c>
@@ -4269,7 +4262,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:4">
       <c r="B87" t="s">
         <v>43</v>
       </c>
@@ -4280,7 +4273,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:4">
       <c r="B88" t="s">
         <v>44</v>
       </c>
@@ -4297,12 +4290,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
